--- a/Energy/occrate_trns_passenger_per_vehicle_rail_passenger/row_data/occ_rate_trains_passenger.xlsx
+++ b/Energy/occrate_trns_passenger_per_vehicle_rail_passenger/row_data/occ_rate_trains_passenger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateotrc/Documents/TEC/DatosEner/datos/occrate_trns_passenger_per_vehicle_rail_passenger/row_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45ACB574-57CA-E647-8C11-B223F55B457A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B7D1FB-1D3A-314F-9EDA-24552164B944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="500" windowWidth="25240" windowHeight="12960" xr2:uid="{B0B9BE73-F1C6-1344-9AF1-A4740DE314E5}"/>
   </bookViews>
